--- a/wind_turbine_11MW.xlsx
+++ b/wind_turbine_11MW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc17718\Documents\GitHub\wind_turbine_ATMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE2216E-E6F9-4454-99D1-17638D71CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C5FF3B-AFC1-4562-928A-804B0DDD4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,7 +590,8 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>372</v>
+        <f>372+33</f>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -598,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -606,7 +607,8 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>206</v>
+        <f>365/2</f>
+        <v>182.5</v>
       </c>
     </row>
   </sheetData>

--- a/wind_turbine_11MW.xlsx
+++ b/wind_turbine_11MW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc17718\Documents\GitHub\wind_turbine_ATMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C5FF3B-AFC1-4562-928A-804B0DDD4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFADE9A-B665-49F7-8CD9-6953D4FB2D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,13 @@
     <t>rotor blade diameter (m)</t>
   </si>
   <si>
-    <t>Siemens Gamesa SG 8.0-167 DD offshore wind turbine</t>
-  </si>
-  <si>
     <t>number of turbines (max)</t>
   </si>
   <si>
     <t>hub height</t>
+  </si>
+  <si>
+    <t>Siemens Gamesa SG 11.0-200 DD offshore wind turbine</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,12 +558,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>231</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <f>365/2</f>
